--- a/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>33,01%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,73%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,55; 11,13</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 19,2</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 21,49</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 99,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,62; 107,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,43; 85,11</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,57%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,42; 17,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 19,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 18,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,32; 22,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,95; 232,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,66; 107,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,78; 124,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,85; 110,98</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,73; 23,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 17,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,85; 19,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 19,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,01; 287,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,64; 91,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,44; 117,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,21; 77,59</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 13,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,55; 20,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,01; 24,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 19,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,19; 105,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,1; 133,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,24; 98,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 77,02</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 18,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,93; 36,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,31; 23,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,3; 22,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,41; 172,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,75; 285,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,13; 226,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,68; 123,18</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,83%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 17,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,73; 25,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 17,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 19,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,58; 165,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,34; 161,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,49; 148,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,91; 77,91</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,56%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 11,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,62; 20,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 11,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,42; 43,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,49; 93,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,64; 140,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,56; 88,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,12; 177,25</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,82</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,24%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 13,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,38; 19,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 17,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,81; 22,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,43; 85,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,59; 157,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,35; 99,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,79; 217,41</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,19%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,95; 11,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 17,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,18; 14,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,41; 22,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,29; 88,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,9; 104,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,61; 81,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,31; 98,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>50,57%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 16,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 21,49</t>
+          <t>6,48; 21,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,14; 128,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,43; 85,11</t>
+          <t>18,82; 89,75</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71,57%</t>
+          <t>76,25%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 22,64</t>
+          <t>11,93; 23,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,85; 110,98</t>
+          <t>43,61; 117,22</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,28</t>
+          <t>13,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>47,07%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 19,97</t>
+          <t>6,79; 19,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,21; 77,59</t>
+          <t>21,01; 79,55</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>21,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>108,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>14,86%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 20,96</t>
+          <t>13,95; 27,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 19,24</t>
+          <t>-13,06; 14,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,1; 133,36</t>
+          <t>61,4; 170,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 77,02</t>
+          <t>-35,35; 53,74</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>70,34%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 22,94</t>
+          <t>8,63; 23,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,68; 123,18</t>
+          <t>32,3; 124,65</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>47,0%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 19,9</t>
+          <t>5,96; 20,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,91; 77,91</t>
+          <t>18,15; 80,24</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,46</t>
+          <t>28,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>107,66%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 43,63</t>
+          <t>12,68; 54,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,12; 177,25</t>
+          <t>45,45; 226,33</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>20,98</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>139,24%</t>
+          <t>206,72%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,81; 22,24</t>
+          <t>15,99; 28,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,79; 217,41</t>
+          <t>109,19; 641,27</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>19,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>86,8%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,41; 22,59</t>
+          <t>14,27; 29,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>58,31; 98,89</t>
+          <t>58,76; 153,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 11,13</t>
+          <t>-1,73; 11,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 16,35</t>
+          <t>1,89; 15,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 19,2</t>
+          <t>3,96; 19,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 21,86</t>
+          <t>6,69; 22,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 99,34</t>
+          <t>-11,73; 102,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 128,79</t>
+          <t>8,95; 122,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 107,07</t>
+          <t>14,59; 110,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 89,75</t>
+          <t>20,29; 96,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,12</t>
+          <t>8,2; 17,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,38</t>
+          <t>8,28; 19,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 18,28</t>
+          <t>8,02; 18,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 23,22</t>
+          <t>11,66; 23,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,95; 232,53</t>
+          <t>70,03; 236,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 107,96</t>
+          <t>34,19; 107,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,78; 124,38</t>
+          <t>40,54; 122,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,61; 117,22</t>
+          <t>44,13; 118,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 23,62</t>
+          <t>12,03; 25,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 17,35</t>
+          <t>3,13; 17,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 19,58</t>
+          <t>6,56; 19,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 19,98</t>
+          <t>6,99; 20,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,01; 287,08</t>
+          <t>91,77; 304,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 91,77</t>
+          <t>12,04; 91,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,44; 117,16</t>
+          <t>27,56; 118,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,01; 79,55</t>
+          <t>20,52; 79,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,02</t>
+          <t>1,53; 12,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 27,63</t>
+          <t>14,83; 28,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 24,07</t>
+          <t>10,45; 25,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 14,78</t>
+          <t>-10,58; 14,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 105,81</t>
+          <t>7,89; 108,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,4; 170,73</t>
+          <t>63,63; 176,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,24; 98,08</t>
+          <t>33,98; 103,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 53,74</t>
+          <t>-30,73; 55,07</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 18,85</t>
+          <t>3,29; 18,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,93; 36,62</t>
+          <t>18,16; 35,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 23,27</t>
+          <t>8,24; 22,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 23,07</t>
+          <t>9,12; 23,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,41; 172,11</t>
+          <t>16,75; 175,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,75; 285,38</t>
+          <t>87,78; 275,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,13; 226,39</t>
+          <t>45,6; 225,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,3; 124,65</t>
+          <t>30,85; 121,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 17,78</t>
+          <t>4,24; 17,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 25,83</t>
+          <t>10,76; 25,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 17,39</t>
+          <t>3,12; 17,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 20,23</t>
+          <t>6,78; 20,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,58; 165,8</t>
+          <t>24,55; 158,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,34; 161,15</t>
+          <t>49,33; 156,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,49; 148,74</t>
+          <t>17,01; 149,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,15; 80,24</t>
+          <t>20,82; 83,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,38</t>
+          <t>2,05; 10,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 20,62</t>
+          <t>10,74; 19,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,41</t>
+          <t>2,18; 11,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,68; 54,01</t>
+          <t>12,42; 50,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 93,2</t>
+          <t>12,12; 86,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,64; 140,41</t>
+          <t>56,68; 135,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,56; 88,34</t>
+          <t>12,95; 86,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,45; 226,33</t>
+          <t>44,83; 224,58</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 13,69</t>
+          <t>5,41; 13,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,38; 19,13</t>
+          <t>10,34; 18,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,71; 17,95</t>
+          <t>8,21; 17,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 28,84</t>
+          <t>15,85; 27,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,43; 85,38</t>
+          <t>27,3; 87,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,59; 157,08</t>
+          <t>60,41; 153,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,35; 99,5</t>
+          <t>37,69; 98,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>109,19; 641,27</t>
+          <t>109,5; 535,5</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,55</t>
+          <t>8,06; 11,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,47</t>
+          <t>13,31; 17,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,43</t>
+          <t>10,1; 14,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,27; 29,9</t>
+          <t>14,55; 31,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,29; 88,99</t>
+          <t>54,56; 92,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>71,9; 104,75</t>
+          <t>70,06; 106,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>51,61; 81,53</t>
+          <t>51,19; 80,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>58,76; 153,96</t>
+          <t>60,43; 160,11</t>
         </is>
       </c>
     </row>
